--- a/results/Benchmarks.xlsx
+++ b/results/Benchmarks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Результаты демо" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t xml:space="preserve">Обход матрицы</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t xml:space="preserve">Параллельно, разные кэш-линии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Параллельно, общий атомик</t>
   </si>
   <si>
     <t xml:space="preserve">Ускорение</t>
@@ -356,10 +359,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>11024</c:v>
+                  <c:v>10848</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1586</c:v>
+                  <c:v>1585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -367,11 +370,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="63374606"/>
-        <c:axId val="17870451"/>
+        <c:axId val="15930818"/>
+        <c:axId val="91468223"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63374606"/>
+        <c:axId val="15930818"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,7 +402,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17870451"/>
+        <c:crossAx val="91468223"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -407,7 +410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17870451"/>
+        <c:axId val="91468223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +447,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63374606"/>
+        <c:crossAx val="15930818"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -604,31 +607,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1058</c:v>
+                  <c:v>1025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2028</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3401</c:v>
+                  <c:v>3393</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6856</c:v>
+                  <c:v>6684</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8770</c:v>
+                  <c:v>8061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15340</c:v>
+                  <c:v>15744</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22737</c:v>
+                  <c:v>22832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35057</c:v>
+                  <c:v>34457</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48543</c:v>
+                  <c:v>48371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,31 +740,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>942</c:v>
+                  <c:v>951</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1634</c:v>
+                  <c:v>1627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2609</c:v>
+                  <c:v>2605</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3847</c:v>
+                  <c:v>3835</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5555</c:v>
+                  <c:v>5547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7525</c:v>
+                  <c:v>7545</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10196</c:v>
+                  <c:v>10184</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12998</c:v>
+                  <c:v>13007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16817</c:v>
+                  <c:v>16839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,11 +779,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="50835005"/>
-        <c:axId val="35772066"/>
+        <c:axId val="61362447"/>
+        <c:axId val="24247151"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50835005"/>
+        <c:axId val="61362447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,7 +811,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35772066"/>
+        <c:crossAx val="24247151"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -816,7 +819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35772066"/>
+        <c:axId val="24247151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +856,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50835005"/>
+        <c:crossAx val="61362447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -971,10 +974,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>12840</c:v>
+                  <c:v>12901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3076</c:v>
+                  <c:v>3251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,11 +985,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="44057026"/>
-        <c:axId val="20063647"/>
+        <c:axId val="10978544"/>
+        <c:axId val="11377709"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44057026"/>
+        <c:axId val="10978544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1017,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20063647"/>
+        <c:crossAx val="11377709"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1022,7 +1025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20063647"/>
+        <c:axId val="11377709"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1062,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44057026"/>
+        <c:crossAx val="10978544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1121,6 +1124,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'False sharing'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -1158,9 +1172,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'False sharing'!$B$5:$B$7</c:f>
+              <c:f>'False sharing'!$B$5:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Последовательно</c:v>
                 </c:pt>
@@ -1169,24 +1183,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Параллельно, разные кэш-линии</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Параллельно, общий атомик</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'False sharing'!$C$5:$C$7</c:f>
+              <c:f>'False sharing'!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11012</c:v>
+                  <c:v>7620</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17028</c:v>
+                  <c:v>6037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5547</c:v>
+                  <c:v>3903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,11 +1214,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="17652086"/>
-        <c:axId val="87027979"/>
+        <c:axId val="69904161"/>
+        <c:axId val="86285655"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="17652086"/>
+        <c:axId val="69904161"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,7 +1246,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87027979"/>
+        <c:crossAx val="86285655"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1234,7 +1254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87027979"/>
+        <c:axId val="86285655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +1291,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17652086"/>
+        <c:crossAx val="69904161"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1330,9 +1350,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>694800</xdr:colOff>
+      <xdr:colOff>694080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1340,8 +1360,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3111840" y="561960"/>
-        <a:ext cx="7353720" cy="4123080"/>
+        <a:off x="3114720" y="561960"/>
+        <a:ext cx="7375680" cy="4122360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1365,9 +1385,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>574920</xdr:colOff>
+      <xdr:colOff>574200</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1376,7 +1396,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1473840" y="1977120"/>
-        <a:ext cx="9729720" cy="5469840"/>
+        <a:ext cx="9735840" cy="5469120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1400,9 +1420,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>217440</xdr:colOff>
+      <xdr:colOff>216720</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1410,8 +1430,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4423680" y="351360"/>
-        <a:ext cx="9366120" cy="5241960"/>
+        <a:off x="4428720" y="351360"/>
+        <a:ext cx="9396000" cy="5241240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1429,15 +1449,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>777960</xdr:colOff>
+      <xdr:colOff>236520</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>252360</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>770760</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1445,8 +1465,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4941000" y="277200"/>
-        <a:ext cx="10090440" cy="5526360"/>
+        <a:off x="4404600" y="219960"/>
+        <a:ext cx="10364040" cy="5899320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1464,13 +1484,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.39"/>
   </cols>
@@ -1493,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>11024</v>
+        <v>10848</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>12934</v>
+        <v>12763</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,7 +1550,7 @@
         <v>1000</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1058</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,7 +1558,7 @@
         <v>1200</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2028</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,7 +1566,7 @@
         <v>1400</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3401</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1554,7 +1574,7 @@
         <v>1600</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>6856</v>
+        <v>6684</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,7 +1582,7 @@
         <v>1800</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>8770</v>
+        <v>8061</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,7 +1590,7 @@
         <v>2000</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>15340</v>
+        <v>15744</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,7 +1598,7 @@
         <v>2200</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>22737</v>
+        <v>22832</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1586,7 +1606,7 @@
         <v>2400</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>35057</v>
+        <v>34457</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,7 +1614,7 @@
         <v>2600</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>48543</v>
+        <v>48371</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1602,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>144184</v>
+        <v>142953</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,7 +1643,7 @@
         <v>1000</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>942</v>
+        <v>951</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,7 +1651,7 @@
         <v>1200</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1634</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1639,7 +1659,7 @@
         <v>1400</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2609</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,7 +1667,7 @@
         <v>1600</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>3847</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,7 +1675,7 @@
         <v>1800</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>5555</v>
+        <v>5547</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1663,7 +1683,7 @@
         <v>2000</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>7525</v>
+        <v>7545</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1671,7 +1691,7 @@
         <v>2200</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>10196</v>
+        <v>10184</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1679,7 +1699,7 @@
         <v>2400</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>12998</v>
+        <v>13007</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,7 +1707,7 @@
         <v>2600</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>16817</v>
+        <v>16839</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,7 +1715,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>62660</v>
+        <v>62665</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,7 +1736,7 @@
         <v>11</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>12840</v>
+        <v>12901</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,7 +1744,7 @@
         <v>12</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>3076</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>16227</v>
+        <v>16467</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1753,7 +1773,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>10478</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1761,7 +1781,7 @@
         <v>16</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>17105</v>
+        <v>6037</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,15 +1789,23 @@
         <v>17</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>5533</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>16757</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="0" t="n">
-        <v>33149</v>
+      <c r="B45" s="0" t="n">
+        <v>34347</v>
       </c>
     </row>
   </sheetData>
@@ -1802,7 +1830,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.92"/>
   </cols>
@@ -1830,7 +1858,7 @@
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">'Результаты демо'!B3</f>
-        <v>11024</v>
+        <v>10848</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,16 +1868,16 @@
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">'Результаты демо'!B4</f>
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="n">
         <f aca="false">B6/B7</f>
-        <v>6.95081967213115</v>
+        <v>6.84416403785489</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1903,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.43"/>
@@ -1896,7 +1924,7 @@
         <v>Умножение матриц с транспонированием</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1906,15 +1934,15 @@
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">'Результаты демо'!B9</f>
-        <v>1058</v>
+        <v>1025</v>
       </c>
       <c r="C2" s="2" t="n">
         <f aca="false">'Результаты демо'!B22</f>
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="D2" s="3" t="n">
         <f aca="false">B2/C2</f>
-        <v>1.12314225053079</v>
+        <v>1.07781282860147</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1924,15 +1952,15 @@
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">'Результаты демо'!B10</f>
-        <v>2028</v>
+        <v>2003</v>
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">'Результаты демо'!B23</f>
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="D3" s="3" t="n">
         <f aca="false">B3/C3</f>
-        <v>1.24112607099143</v>
+        <v>1.23110018438845</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,15 +1970,15 @@
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">'Результаты демо'!B11</f>
-        <v>3401</v>
+        <v>3393</v>
       </c>
       <c r="C4" s="2" t="n">
         <f aca="false">'Результаты демо'!B24</f>
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="D4" s="3" t="n">
         <f aca="false">B4/C4</f>
-        <v>1.30356458413185</v>
+        <v>1.30249520153551</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1960,15 +1988,15 @@
       </c>
       <c r="B5" s="2" t="n">
         <f aca="false">'Результаты демо'!B12</f>
-        <v>6856</v>
+        <v>6684</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">'Результаты демо'!B25</f>
-        <v>3847</v>
+        <v>3835</v>
       </c>
       <c r="D5" s="3" t="n">
         <f aca="false">B5/C5</f>
-        <v>1.78216792305693</v>
+        <v>1.74289439374185</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,15 +2006,15 @@
       </c>
       <c r="B6" s="2" t="n">
         <f aca="false">'Результаты демо'!B13</f>
-        <v>8770</v>
+        <v>8061</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">'Результаты демо'!B26</f>
-        <v>5555</v>
+        <v>5547</v>
       </c>
       <c r="D6" s="3" t="n">
         <f aca="false">B6/C6</f>
-        <v>1.57875787578758</v>
+        <v>1.4532179556517</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,15 +2024,15 @@
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">'Результаты демо'!B14</f>
-        <v>15340</v>
+        <v>15744</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">'Результаты демо'!B27</f>
-        <v>7525</v>
+        <v>7545</v>
       </c>
       <c r="D7" s="3" t="n">
         <f aca="false">B7/C7</f>
-        <v>2.03853820598007</v>
+        <v>2.08667992047714</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,15 +2042,15 @@
       </c>
       <c r="B8" s="2" t="n">
         <f aca="false">'Результаты демо'!B15</f>
-        <v>22737</v>
+        <v>22832</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">'Результаты демо'!B28</f>
-        <v>10196</v>
+        <v>10184</v>
       </c>
       <c r="D8" s="3" t="n">
         <f aca="false">B8/C8</f>
-        <v>2.2299921537858</v>
+        <v>2.24194815396701</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2032,15 +2060,15 @@
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">'Результаты демо'!B16</f>
-        <v>35057</v>
+        <v>34457</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">'Результаты демо'!B29</f>
-        <v>12998</v>
+        <v>13007</v>
       </c>
       <c r="D9" s="3" t="n">
         <f aca="false">B9/C9</f>
-        <v>2.69710724726881</v>
+        <v>2.64911201660644</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2050,15 +2078,15 @@
       </c>
       <c r="B10" s="2" t="n">
         <f aca="false">'Результаты демо'!B17</f>
-        <v>48543</v>
+        <v>48371</v>
       </c>
       <c r="C10" s="2" t="n">
         <f aca="false">'Результаты демо'!B30</f>
-        <v>16817</v>
+        <v>16839</v>
       </c>
       <c r="D10" s="3" t="n">
         <f aca="false">B10/C10</f>
-        <v>2.88654337872391</v>
+        <v>2.87255775283568</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,7 +2121,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.33"/>
   </cols>
@@ -2121,7 +2149,7 @@
       </c>
       <c r="C11" s="2" t="n">
         <f aca="false">'Результаты демо'!B35</f>
-        <v>12840</v>
+        <v>12901</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,16 +2159,16 @@
       </c>
       <c r="C12" s="2" t="n">
         <f aca="false">'Результаты демо'!B36</f>
-        <v>3076</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="n">
         <f aca="false">C11/C12</f>
-        <v>4.17425227568271</v>
+        <v>3.96831744078745</v>
       </c>
     </row>
   </sheetData>
@@ -2162,76 +2190,87 @@
   </sheetPr>
   <dimension ref="B3:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.85"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
-        <v>13</v>
+      <c r="B3" s="1" t="str">
+        <f aca="false">'Результаты демо'!A39</f>
+        <v>False sharing</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
+      <c r="B4" s="2" t="str">
+        <f aca="false">'Результаты демо'!A40</f>
+        <v>Способ исполнения</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f aca="false">'Результаты демо'!B40</f>
+        <v>ms</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="s">
-        <v>15</v>
+      <c r="B5" s="2" t="str">
+        <f aca="false">'Результаты демо'!A41</f>
+        <v>Последовательно</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>11012</v>
+        <f aca="false">'Результаты демо'!B41</f>
+        <v>7620</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="s">
-        <v>16</v>
+      <c r="B6" s="2" t="str">
+        <f aca="false">'Результаты демо'!A42</f>
+        <v>Параллельно, одна кэш-линия</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>17028</v>
+        <f aca="false">'Результаты демо'!B42</f>
+        <v>6037</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="s">
-        <v>17</v>
+      <c r="B7" s="2" t="str">
+        <f aca="false">'Результаты демо'!A43</f>
+        <v>Параллельно, разные кэш-линии</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>5547</v>
+        <f aca="false">'Результаты демо'!B43</f>
+        <v>3903</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>33621</v>
+      <c r="B8" s="2" t="str">
+        <f aca="false">'Результаты демо'!A44</f>
+        <v>Параллельно, общий атомик</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">'Результаты демо'!B44</f>
+        <v>16757</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="n">
-        <f aca="false">C6/C5</f>
-        <v>1.54631311296767</v>
+        <f aca="false">C8/C5</f>
+        <v>2.1990813648294</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="n">
         <f aca="false">C5/C7</f>
-        <v>1.98521723454119</v>
+        <v>1.95234435049962</v>
       </c>
     </row>
   </sheetData>

--- a/results/Benchmarks.xlsx
+++ b/results/Benchmarks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t xml:space="preserve">Обход матрицы</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t xml:space="preserve">Замедление</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ускорение1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ускорение2</t>
   </si>
 </sst>
 </file>
@@ -189,7 +195,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,6 +209,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,11 +380,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="15930818"/>
-        <c:axId val="91468223"/>
+        <c:axId val="20597582"/>
+        <c:axId val="33761507"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15930818"/>
+        <c:axId val="20597582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,7 +412,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91468223"/>
+        <c:crossAx val="33761507"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -410,7 +420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91468223"/>
+        <c:axId val="33761507"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,7 +457,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15930818"/>
+        <c:crossAx val="20597582"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -779,11 +789,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="61362447"/>
-        <c:axId val="24247151"/>
+        <c:axId val="79090389"/>
+        <c:axId val="14221392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61362447"/>
+        <c:axId val="79090389"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +821,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24247151"/>
+        <c:crossAx val="14221392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -819,7 +829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24247151"/>
+        <c:axId val="14221392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,7 +866,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61362447"/>
+        <c:crossAx val="79090389"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -985,11 +995,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="10978544"/>
-        <c:axId val="11377709"/>
+        <c:axId val="89201789"/>
+        <c:axId val="17674333"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="10978544"/>
+        <c:axId val="89201789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1027,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11377709"/>
+        <c:crossAx val="17674333"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1025,7 +1035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11377709"/>
+        <c:axId val="17674333"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,7 +1072,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10978544"/>
+        <c:crossAx val="89201789"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1172,9 +1182,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'False sharing'!$B$5:$B$8</c:f>
+              <c:f>'False sharing'!$B$5:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Последовательно</c:v>
                 </c:pt>
@@ -1183,19 +1193,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Параллельно, разные кэш-линии</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Параллельно, общий атомик</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'False sharing'!$C$5:$C$8</c:f>
+              <c:f>'False sharing'!$C$5:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>7620</c:v>
                 </c:pt>
@@ -1204,9 +1211,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3903</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1214,11 +1218,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="69904161"/>
-        <c:axId val="86285655"/>
+        <c:axId val="72967863"/>
+        <c:axId val="93590682"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69904161"/>
+        <c:axId val="72967863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,7 +1250,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86285655"/>
+        <c:crossAx val="93590682"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1254,7 +1258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86285655"/>
+        <c:axId val="93590682"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1295,236 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69904161"/>
+        <c:crossAx val="72967863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'False sharing'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'False sharing'!$B$5:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Последовательно</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Параллельно, одна кэш-линия</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Параллельно, разные кэш-линии</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Параллельно, общий атомик</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'False sharing'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7620</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="17235059"/>
+        <c:axId val="9377022"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="17235059"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9377022"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="9377022"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17235059"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1350,9 +1583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>694080</xdr:colOff>
+      <xdr:colOff>693720</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1360,8 +1593,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3114720" y="561960"/>
-        <a:ext cx="7375680" cy="4122360"/>
+        <a:off x="3115800" y="561960"/>
+        <a:ext cx="7386840" cy="4122000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1385,9 +1618,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>574200</xdr:colOff>
+      <xdr:colOff>573840</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1396,7 +1629,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1473840" y="1977120"/>
-        <a:ext cx="9735840" cy="5469120"/>
+        <a:ext cx="9740520" cy="5468760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1420,9 +1653,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>216720</xdr:colOff>
+      <xdr:colOff>216360</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1430,8 +1663,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4428720" y="351360"/>
-        <a:ext cx="9396000" cy="5241240"/>
+        <a:off x="4431240" y="351360"/>
+        <a:ext cx="9411120" cy="5240880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1448,16 +1681,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11160</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>57240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>770760</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>298080</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1465,12 +1698,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4404600" y="219960"/>
-        <a:ext cx="10364040" cy="5899320"/>
+        <a:off x="8283960" y="219960"/>
+        <a:ext cx="8490960" cy="4589640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>727560</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95760</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>49320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="727560" y="2696760"/>
+        <a:ext cx="7641000" cy="4342680"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1490,7 +1753,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.39"/>
   </cols>
@@ -1830,7 +2093,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.92"/>
   </cols>
@@ -1903,7 +2166,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.43"/>
@@ -2121,7 +2384,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.33"/>
   </cols>
@@ -2188,13 +2451,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:C12"/>
+  <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.85"/>
   </cols>
@@ -2266,11 +2529,20 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="n">
         <f aca="false">C5/C7</f>
         <v>1.95234435049962</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <f aca="false">C6/C7</f>
+        <v>1.54675890340764</v>
       </c>
     </row>
   </sheetData>

--- a/results/Benchmarks.xlsx
+++ b/results/Benchmarks.xlsx
@@ -86,13 +86,13 @@
     <t xml:space="preserve">Ускорение</t>
   </si>
   <si>
-    <t xml:space="preserve">Замедление</t>
+    <t xml:space="preserve">Замедление (атомик)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ускорение1</t>
+    <t xml:space="preserve">Ускорение (одна кэш-линия)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ускорение2</t>
+    <t xml:space="preserve">Ускорение (разные кэш-линии)</t>
   </si>
 </sst>
 </file>
@@ -212,7 +212,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -380,11 +380,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="20597582"/>
-        <c:axId val="33761507"/>
+        <c:axId val="81121966"/>
+        <c:axId val="858185"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="20597582"/>
+        <c:axId val="81121966"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,7 +412,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33761507"/>
+        <c:crossAx val="858185"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -420,7 +420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33761507"/>
+        <c:axId val="858185"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,7 +457,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20597582"/>
+        <c:crossAx val="81121966"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -789,11 +789,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="79090389"/>
-        <c:axId val="14221392"/>
+        <c:axId val="78163721"/>
+        <c:axId val="95043868"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79090389"/>
+        <c:axId val="78163721"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,7 +821,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14221392"/>
+        <c:crossAx val="95043868"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -829,7 +829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14221392"/>
+        <c:axId val="95043868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,7 +866,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79090389"/>
+        <c:crossAx val="78163721"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -995,11 +995,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="89201789"/>
-        <c:axId val="17674333"/>
+        <c:axId val="6664979"/>
+        <c:axId val="16091805"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89201789"/>
+        <c:axId val="6664979"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,7 +1027,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17674333"/>
+        <c:crossAx val="16091805"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1035,7 +1035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17674333"/>
+        <c:axId val="16091805"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1072,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89201789"/>
+        <c:crossAx val="6664979"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1204,13 +1204,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7620</c:v>
+                  <c:v>11311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6037</c:v>
+                  <c:v>9938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3903</c:v>
+                  <c:v>4717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,11 +1218,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="72967863"/>
-        <c:axId val="93590682"/>
+        <c:axId val="70645059"/>
+        <c:axId val="96083308"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72967863"/>
+        <c:axId val="70645059"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1250,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93590682"/>
+        <c:crossAx val="96083308"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1258,7 +1258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93590682"/>
+        <c:axId val="96083308"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1295,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72967863"/>
+        <c:crossAx val="70645059"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1430,16 +1430,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7620</c:v>
+                  <c:v>11311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6037</c:v>
+                  <c:v>9938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3903</c:v>
+                  <c:v>4717</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16757</c:v>
+                  <c:v>25746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1447,11 +1447,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="17235059"/>
-        <c:axId val="9377022"/>
+        <c:axId val="71360931"/>
+        <c:axId val="23675453"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="17235059"/>
+        <c:axId val="71360931"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,7 +1479,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9377022"/>
+        <c:crossAx val="23675453"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1487,7 +1487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9377022"/>
+        <c:axId val="23675453"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,7 +1524,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17235059"/>
+        <c:crossAx val="71360931"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1583,9 +1583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>693720</xdr:colOff>
+      <xdr:colOff>693360</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1593,8 +1593,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3115800" y="561960"/>
-        <a:ext cx="7386840" cy="4122000"/>
+        <a:off x="3117240" y="561960"/>
+        <a:ext cx="7397640" cy="4121640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1618,9 +1618,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>573840</xdr:colOff>
+      <xdr:colOff>573480</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1629,7 +1629,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1473840" y="1977120"/>
-        <a:ext cx="9740520" cy="5468760"/>
+        <a:ext cx="9745560" cy="5468400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1653,9 +1653,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>216360</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1663,8 +1663,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4431240" y="351360"/>
-        <a:ext cx="9411120" cy="5240880"/>
+        <a:off x="4433760" y="351360"/>
+        <a:ext cx="9425880" cy="5240520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1687,10 +1687,10 @@
       <xdr:rowOff>57240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>298080</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>522360</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1698,8 +1698,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8283960" y="219960"/>
-        <a:ext cx="8490960" cy="4589640"/>
+        <a:off x="8292960" y="219960"/>
+        <a:ext cx="9549720" cy="5154120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1712,15 +1712,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>727560</xdr:colOff>
+      <xdr:colOff>401400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95760</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>591120</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1728,8 +1728,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="727560" y="2696760"/>
-        <a:ext cx="7641000" cy="4342680"/>
+        <a:off x="401400" y="2677680"/>
+        <a:ext cx="7649640" cy="4342320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1750,10 +1750,10 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.39"/>
   </cols>
@@ -2036,7 +2036,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>7620</v>
+        <v>11311</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>6037</v>
+        <v>9938</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,7 +2052,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>3903</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,7 +2060,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>16757</v>
+        <v>25746</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,7 +2093,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.92"/>
   </cols>
@@ -2166,7 +2166,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.43"/>
@@ -2384,7 +2384,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.33"/>
   </cols>
@@ -2454,10 +2454,10 @@
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.85"/>
   </cols>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">'Результаты демо'!B41</f>
-        <v>7620</v>
+        <v>11311</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">'Результаты демо'!B42</f>
-        <v>6037</v>
+        <v>9938</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">'Результаты демо'!B43</f>
-        <v>3903</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,35 +2515,38 @@
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">'Результаты демо'!B44</f>
-        <v>16757</v>
+        <v>25746</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <f aca="false">C8/C5</f>
+        <v>2.27619131818584</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="n">
-        <f aca="false">C8/C5</f>
-        <v>2.1990813648294</v>
+        <f aca="false">C5/C6</f>
+        <v>1.13815657073858</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="n">
         <f aca="false">C5/C7</f>
-        <v>1.95234435049962</v>
+        <v>2.39792240831037</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <f aca="false">C6/C7</f>
-        <v>1.54675890340764</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
